--- a/Agile/Répartition_Agile.xlsx
+++ b/Agile/Répartition_Agile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guill\Documents\42 Developpement\_IUT\Projet_IT2R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cleme\Desktop\Projet_test_GIT\Projet_IT2R_1_ER\Agile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35EED99-0026-45CA-8BB7-D7A7A3328D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B9ECCF-1A3E-4B7A-AE69-F684DD5AF055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D4896AE1-E6FC-4525-8FDA-CFF9A1CACD1D}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{D4896AE1-E6FC-4525-8FDA-CFF9A1CACD1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>Analyse de l'environnement</t>
   </si>
@@ -127,6 +125,18 @@
   </si>
   <si>
     <t>Objetifs du sprint</t>
+  </si>
+  <si>
+    <t>LIDAR Fonctionnel</t>
+  </si>
+  <si>
+    <t>Animations lumineuse</t>
+  </si>
+  <si>
+    <t>Fonctionnelle</t>
+  </si>
+  <si>
+    <t>Pilotage auto par LIDAR/Détecteur</t>
   </si>
 </sst>
 </file>
@@ -191,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -200,7 +210,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,19 +538,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0510CA9-A260-4F0F-B365-4D2046998A93}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.53125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.46484375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -537,7 +558,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -545,7 +566,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -553,7 +574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -561,7 +582,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -569,7 +590,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -577,7 +598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -585,7 +606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -593,7 +614,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -601,7 +622,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -609,17 +630,22 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -636,114 +662,126 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="6">
         <v>2</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="6">
         <v>1</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="6">
         <v>1</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="6">
         <v>3</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="6">
         <v>1</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="D22" s="6"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="6">
         <v>2</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="2"/>
+      <c r="D23" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="6">
         <v>1</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="2"/>
+      <c r="D24" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="9">
         <f>B18+B19+B20+B21+B22+B23+B24</f>
         <v>11</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
       <c r="F26" s="2"/>
     </row>
   </sheetData>
